--- a/tumlknexpectimax/excel_data/input_data_its_nodsl.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_its_nodsl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="765" windowWidth="13680" windowHeight="11130" tabRatio="847"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -1108,40 +1108,40 @@
                   <c:v>3056.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6405.333333333333</c:v>
+                  <c:v>6261.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5299.166666666667</c:v>
+                  <c:v>5611.5666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41616.833333333336</c:v>
+                  <c:v>44405.233333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12618.666666666666</c:v>
+                  <c:v>10122.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6426.666666666667</c:v>
+                  <c:v>3018.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12818.666666666666</c:v>
+                  <c:v>20010.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11216.333333333334</c:v>
+                  <c:v>16565.833333333336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7280</c:v>
+                  <c:v>8160</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14160</c:v>
+                  <c:v>15920</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27600</c:v>
+                  <c:v>31120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14160</c:v>
+                  <c:v>16400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,43 +1221,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4297.6000000000004</c:v>
+                  <c:v>186453.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13750.8</c:v>
+                  <c:v>34505.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10860</c:v>
+                  <c:v>62156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160920</c:v>
+                  <c:v>170592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69280.2</c:v>
+                  <c:v>156784.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10974.4</c:v>
+                  <c:v>161241.60000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>61989.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13060</c:v>
+                  <c:v>60860</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74185</c:v>
+                  <c:v>109884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15966.5</c:v>
+                  <c:v>56055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108466.5</c:v>
+                  <c:v>198519</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76076</c:v>
+                  <c:v>173868</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16966.5</c:v>
+                  <c:v>67433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,11 +1278,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="219727360"/>
-        <c:axId val="220732160"/>
+        <c:axId val="67876864"/>
+        <c:axId val="79959104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219727360"/>
+        <c:axId val="67876864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,7 +1311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220732160"/>
+        <c:crossAx val="79959104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1319,7 +1319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220732160"/>
+        <c:axId val="79959104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219727360"/>
+        <c:crossAx val="67876864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,40 +1715,40 @@
                   <c:v>3056.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6405.333333333333</c:v>
+                  <c:v>6261.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5299.166666666667</c:v>
+                  <c:v>5611.5666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41616.833333333336</c:v>
+                  <c:v>44405.233333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12618.666666666666</c:v>
+                  <c:v>10122.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6426.666666666667</c:v>
+                  <c:v>3018.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12818.666666666666</c:v>
+                  <c:v>20010.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11216.333333333334</c:v>
+                  <c:v>16565.833333333336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7280</c:v>
+                  <c:v>8160</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14160</c:v>
+                  <c:v>15920</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27600</c:v>
+                  <c:v>31120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14160</c:v>
+                  <c:v>16400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1828,43 +1828,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4297.6000000000004</c:v>
+                  <c:v>186453.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13750.8</c:v>
+                  <c:v>34505.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10860</c:v>
+                  <c:v>62156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160920</c:v>
+                  <c:v>170592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69280.2</c:v>
+                  <c:v>156784.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10974.4</c:v>
+                  <c:v>161241.60000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>61989.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13060</c:v>
+                  <c:v>60860</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74185</c:v>
+                  <c:v>109884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15966.5</c:v>
+                  <c:v>56055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108466.5</c:v>
+                  <c:v>198519</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76076</c:v>
+                  <c:v>173868</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16966.5</c:v>
+                  <c:v>67433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,11 +1885,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="219729408"/>
-        <c:axId val="219784320"/>
+        <c:axId val="85844480"/>
+        <c:axId val="79961408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="219729408"/>
+        <c:axId val="85844480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +1918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219784320"/>
+        <c:crossAx val="79961408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1926,7 +1926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219784320"/>
+        <c:axId val="79961408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +1956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219729408"/>
+        <c:crossAx val="85844480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2090,46 +2090,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>35010.231998881951</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17294.382768346848</c:v>
+                  <c:v>19913.660320618339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44649.803328181377</c:v>
+                  <c:v>9039.2720754146721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44953.592846455693</c:v>
+                  <c:v>7565.4775321736834</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13016.782126163325</c:v>
+                  <c:v>22288.444198840352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10614.873704727679</c:v>
+                  <c:v>18653.265408748008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45523.298906233656</c:v>
+                  <c:v>7678.7180983961152</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48092.428432008324</c:v>
+                  <c:v>10182.635408748005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48868.228976951694</c:v>
+                  <c:v>8531.3041988403511</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33522.091633136042</c:v>
+                  <c:v>12577.163599053416</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44709.760950131196</c:v>
+                  <c:v>7576.8046906962363</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11922.241758999651</c:v>
+                  <c:v>22599.204690696239</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42094.626804730287</c:v>
+                  <c:v>21647.563599053417</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49870.903749399651</c:v>
+                  <c:v>9538.6046906962383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,11 +2149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="220962304"/>
-        <c:axId val="219786624"/>
+        <c:axId val="87258624"/>
+        <c:axId val="82185024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220962304"/>
+        <c:axId val="87258624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219786624"/>
+        <c:crossAx val="82185024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2171,7 +2171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219786624"/>
+        <c:axId val="82185024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220962304"/>
+        <c:crossAx val="87258624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2627,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2835,14 +2835,14 @@
         <v>3056.8888888888887</v>
       </c>
       <c r="V3" s="11">
-        <v>4297.6000000000004</v>
+        <v>186453.6</v>
       </c>
       <c r="W3" s="11">
-        <v>161610.48888888888</v>
+        <v>189510.48888888888</v>
       </c>
       <c r="X3" s="12">
         <f>S3+T3+U3+V3</f>
-        <v>103620.76484436693</v>
+        <v>285776.76484436693</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2909,17 +2909,17 @@
         <v>12.814589886676153</v>
       </c>
       <c r="U4" s="11">
-        <v>6405.333333333333</v>
+        <v>6261.333333333333</v>
       </c>
       <c r="V4" s="11">
-        <v>13750.8</v>
+        <v>34505.599999999999</v>
       </c>
       <c r="W4" s="11">
-        <v>70156.133333333331</v>
+        <v>75758.933333333334</v>
       </c>
       <c r="X4" s="12">
         <f t="shared" ref="X4:X14" si="0">S4+T4+U4+V4</f>
-        <v>166506.82213135384</v>
+        <v>187117.62213135386</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2982,17 +2982,17 @@
         <v>14.612123172178348</v>
       </c>
       <c r="U5" s="11">
-        <v>5299.166666666667</v>
+        <v>5611.5666666666666</v>
       </c>
       <c r="V5" s="11">
-        <v>10860</v>
+        <v>62156</v>
       </c>
       <c r="W5" s="11">
-        <v>66159.166666666672</v>
+        <v>67767.566666666666</v>
       </c>
       <c r="X5" s="12">
         <f t="shared" si="0"/>
-        <v>95045.865340540491</v>
+        <v>146654.2653405405</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3059,17 +3059,17 @@
         <v>14.612123172178348</v>
       </c>
       <c r="U6" s="11">
-        <v>41616.833333333336</v>
+        <v>44405.233333333337</v>
       </c>
       <c r="V6" s="11">
-        <v>160920</v>
+        <v>170592</v>
       </c>
       <c r="W6" s="11">
-        <v>202536.83333333334</v>
+        <v>214997.23333333334</v>
       </c>
       <c r="X6" s="12">
         <f t="shared" si="0"/>
-        <v>281423.53200720716</v>
+        <v>293883.93200720719</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3136,17 +3136,17 @@
         <v>12.814589886676153</v>
       </c>
       <c r="U7" s="11">
-        <v>12618.666666666666</v>
+        <v>10122.666666666666</v>
       </c>
       <c r="V7" s="11">
-        <v>69280.2</v>
+        <v>156784.20000000001</v>
       </c>
       <c r="W7" s="11">
-        <v>81898.866666666669</v>
+        <v>171898.86666666667</v>
       </c>
       <c r="X7" s="12">
         <f t="shared" si="0"/>
-        <v>228249.55546468718</v>
+        <v>313257.55546468718</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3211,17 +3211,17 @@
         <v>5.1327825331856927</v>
       </c>
       <c r="U8" s="11">
-        <v>6426.666666666667</v>
+        <v>3018.6666666666665</v>
       </c>
       <c r="V8" s="11">
-        <v>10974.4</v>
+        <v>161241.60000000001</v>
       </c>
       <c r="W8" s="11">
-        <v>201513.06666666665</v>
+        <v>67161.066666666666</v>
       </c>
       <c r="X8" s="12">
         <f t="shared" si="0"/>
-        <v>113667.3426221447</v>
+        <v>260526.54262214471</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3286,17 +3286,17 @@
         <v>12.814589886676153</v>
       </c>
       <c r="U9" s="11">
-        <v>12818.666666666666</v>
+        <v>20010.666666666668</v>
       </c>
       <c r="V9" s="11">
         <v>61989.9</v>
       </c>
       <c r="W9" s="11">
-        <v>74808.566666666666</v>
+        <v>87192.566666666666</v>
       </c>
       <c r="X9" s="12">
         <f t="shared" si="0"/>
-        <v>221159.25546468716</v>
+        <v>228351.25546468716</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3360,17 +3360,17 @@
         <v>14.612123172178348</v>
       </c>
       <c r="U10" s="11">
-        <v>11216.333333333334</v>
+        <v>16565.833333333336</v>
       </c>
       <c r="V10" s="11">
-        <v>13060</v>
+        <v>60860</v>
       </c>
       <c r="W10" s="11">
-        <v>74276.333333333328</v>
+        <v>77425.833333333343</v>
       </c>
       <c r="X10" s="12">
         <f t="shared" si="0"/>
-        <v>103163.03200720715</v>
+        <v>156312.53200720716</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3436,17 +3436,17 @@
         <v>12.594228370284263</v>
       </c>
       <c r="U11" s="11">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="V11" s="11">
-        <v>74185</v>
+        <v>109884</v>
       </c>
       <c r="W11" s="11">
-        <v>100145</v>
+        <v>114284</v>
       </c>
       <c r="X11" s="12">
         <f t="shared" si="0"/>
-        <v>193073.95413371181</v>
+        <v>229172.95413371181</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3511,17 +3511,17 @@
         <v>12.211670303203721</v>
       </c>
       <c r="U12" s="11">
-        <v>7280</v>
+        <v>8160</v>
       </c>
       <c r="V12" s="11">
-        <v>15966.5</v>
+        <v>56055</v>
       </c>
       <c r="W12" s="11">
-        <v>63246.5</v>
+        <v>64215</v>
       </c>
       <c r="X12" s="12">
         <f t="shared" si="0"/>
-        <v>138789.18073992687</v>
+        <v>179757.68073992687</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3587,17 +3587,17 @@
         <v>10.331648594515361</v>
       </c>
       <c r="U13" s="11">
-        <v>14160</v>
+        <v>15920</v>
       </c>
       <c r="V13" s="11">
-        <v>108466.5</v>
+        <v>198519</v>
       </c>
       <c r="W13" s="11">
-        <v>122626.5</v>
+        <v>214439</v>
       </c>
       <c r="X13" s="12">
         <f t="shared" si="0"/>
-        <v>238167.30071821815</v>
+        <v>329979.80071821815</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3662,17 +3662,17 @@
         <v>12.594228370284263</v>
       </c>
       <c r="U14" s="11">
-        <v>27600</v>
+        <v>31120</v>
       </c>
       <c r="V14" s="11">
-        <v>76076</v>
+        <v>173868</v>
       </c>
       <c r="W14" s="11">
-        <v>132956</v>
+        <v>204988</v>
       </c>
       <c r="X14" s="12">
         <f t="shared" si="0"/>
-        <v>218564.95413371181</v>
+        <v>319876.95413371181</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3738,17 +3738,17 @@
         <v>9.5120485945153614</v>
       </c>
       <c r="U15" s="11">
-        <v>14160</v>
+        <v>16400</v>
       </c>
       <c r="V15" s="11">
-        <v>16966.5</v>
+        <v>67433</v>
       </c>
       <c r="W15" s="11">
-        <v>81126.5</v>
+        <v>83833</v>
       </c>
       <c r="X15" s="12">
         <f t="shared" ref="X15" si="1">SUM(S15:V15)</f>
-        <v>146666.48111821816</v>
+        <v>199372.98111821816</v>
       </c>
     </row>
     <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
@@ -3835,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3859,8 +3859,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <f>AVERAGE(B3:B15)</f>
-        <v>35010.231998881951</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3867,8 @@
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <v>17294.382768346848</v>
+        <f>0.1*CAPEX!W3+0.01*CAPEX!S3</f>
+        <v>19913.660320618339</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,8 @@
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>44649.803328181377</v>
+        <f>0.1*CAPEX!W4+0.01*CAPEX!S4</f>
+        <v>9039.2720754146721</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3885,8 @@
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>44953.592846455693</v>
+        <f>0.1*CAPEX!W5+0.01*CAPEX!S5</f>
+        <v>7565.4775321736834</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3894,8 @@
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>13016.782126163325</v>
+        <f>0.1*CAPEX!W6+0.01*CAPEX!S6</f>
+        <v>22288.444198840352</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3903,8 @@
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>10614.873704727679</v>
+        <f>0.1*CAPEX!W7+0.01*CAPEX!S7</f>
+        <v>18653.265408748008</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3912,8 @@
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>45523.298906233656</v>
+        <f>0.1*CAPEX!W8+0.01*CAPEX!S8</f>
+        <v>7678.7180983961152</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3921,8 @@
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <v>48092.428432008324</v>
+        <f>0.1*CAPEX!W9+0.01*CAPEX!S9</f>
+        <v>10182.635408748005</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3930,8 @@
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <v>48868.228976951694</v>
+        <f>0.1*CAPEX!W10+0.01*CAPEX!S10</f>
+        <v>8531.3041988403511</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3939,8 @@
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <v>33522.091633136042</v>
+        <f>0.1*CAPEX!W11+0.01*CAPEX!S11</f>
+        <v>12577.163599053416</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3948,8 @@
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <v>44709.760950131196</v>
+        <f>0.1*CAPEX!W12+0.01*CAPEX!S12</f>
+        <v>7576.8046906962363</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3957,8 @@
         <v>76</v>
       </c>
       <c r="B13" s="12">
-        <v>11922.241758999651</v>
+        <f>0.1*CAPEX!W13+0.01*CAPEX!S13</f>
+        <v>22599.204690696239</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3966,8 @@
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <v>42094.626804730287</v>
+        <f>0.1*CAPEX!W14+0.01*CAPEX!S14</f>
+        <v>21647.563599053417</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3975,8 @@
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <v>49870.903749399651</v>
+        <f>0.1*CAPEX!W15+0.01*CAPEX!S15</f>
+        <v>9538.6046906962383</v>
       </c>
     </row>
   </sheetData>
@@ -4124,31 +4136,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-10638.241758999651</v>
+        <v>-21315.204690696239</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-10638.241758999651</v>
+        <v>-21315.204690696239</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-10638.241758999651</v>
+        <v>-21315.204690696239</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-10782.241758999651</v>
+        <v>-21459.204690696239</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-10782.241758999651</v>
+        <v>-21459.204690696239</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-10782.241758999651</v>
+        <v>-21459.204690696239</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -4156,27 +4168,27 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-10638.241758999651</v>
+        <v>-21315.204690696239</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-10638.241758999651</v>
+        <v>-21315.204690696239</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-10638.241758999651</v>
+        <v>-21315.204690696239</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-10782.241758999651</v>
+        <v>-21459.204690696239</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-10782.241758999651</v>
+        <v>-21459.204690696239</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-10782.241758999651</v>
+        <v>-21459.204690696239</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4226,31 +4238,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-10206.241758999651</v>
+        <v>-20883.204690696239</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-10122.241758999651</v>
+        <v>-20799.204690696239</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-9486.2417589996512</v>
+        <v>-20163.204690696239</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-10386.241758999651</v>
+        <v>-21063.204690696239</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-10314.241758999651</v>
+        <v>-20991.204690696239</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-9762.2417589996512</v>
+        <v>-20439.204690696239</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -4258,27 +4270,27 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-9278.4015990905918</v>
+        <v>-18984.73153699658</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-9202.0379627269558</v>
+        <v>-18908.367900632944</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-8623.8561445451378</v>
+        <v>-18330.186082451124</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-9442.0379627269558</v>
+        <v>-19148.367900632944</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-9376.5834172724099</v>
+        <v>-19082.9133551784</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-8874.7652354542279</v>
+        <v>-18581.095173360216</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4337,31 +4349,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-9570.2417589996512</v>
+        <v>-20247.204690696239</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-9450.2417589996512</v>
+        <v>-20127.204690696239</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-7278.2417589996512</v>
+        <v>-17955.204690696239</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-9834.2417589996512</v>
+        <v>-20511.204690696239</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-9726.2417589996512</v>
+        <v>-20403.204690696239</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-7770.2417589996512</v>
+        <v>-18447.204690696239</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -4369,27 +4381,27 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-7909.2907099170661</v>
+        <v>-16733.227017104327</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-7810.1171561980582</v>
+        <v>-16634.05346338532</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-6015.0758338840087</v>
+        <v>-14839.012141071271</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-8127.4725280988841</v>
+        <v>-16951.408835286147</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-8038.2163297517773</v>
+        <v>-16862.152636939038</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-6421.6874041319425</v>
+        <v>-15245.623711319204</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4449,31 +4461,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-8742.2417589996512</v>
+        <v>-19419.204690696239</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-8406.2417589996512</v>
+        <v>-19083.204690696239</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-2886.2417589996512</v>
+        <v>-13563.204690696239</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-9078.2417589996512</v>
+        <v>-19755.204690696239</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-8766.2417589996512</v>
+        <v>-19443.204690696239</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-3810.2417589996512</v>
+        <v>-14487.204690696239</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -4481,27 +4493,27 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-6568.1756265962804</v>
+        <v>-14589.935905857425</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-6315.7338534933497</v>
+        <v>-14337.494132754495</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-2168.4761525166418</v>
+        <v>-10190.236431777786</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-6820.6173996992102</v>
+        <v>-14842.377678960354</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-6586.2071818179174</v>
+        <v>-14607.967461079063</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-2862.6910285496997</v>
+        <v>-10884.451307810845</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4561,31 +4573,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-7578.2417589996512</v>
+        <v>-18255.204690696239</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-6966.2417589996512</v>
+        <v>-17643.204690696239</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>5609.7582410003488</v>
+        <v>-5067.2046906962387</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-8046.2417589996512</v>
+        <v>-18723.204690696239</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-7482.2417589996512</v>
+        <v>-18159.204690696239</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>3845.7582410003488</v>
+        <v>-6831.2046906962387</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -4593,27 +4605,27 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-5176.0410894062215</v>
+        <v>-12468.550434189081</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-4758.036854722799</v>
+        <v>-12050.546199505658</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>3831.5403599483284</v>
+        <v>-3460.9689848345315</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-5495.6913865170745</v>
+        <v>-12788.200731299934</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-5110.4717976911752</v>
+        <v>-12402.981142474035</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>2626.7046246843438</v>
+        <v>-4665.8047200985156</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4673,31 +4685,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-5994.2417589996512</v>
+        <v>-16671.204690696239</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-4926.2417589996512</v>
+        <v>-15603.204690696239</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>21905.758241000349</v>
+        <v>11228.795309303761</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-6594.2417589996512</v>
+        <v>-17271.204690696239</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-5646.2417589996512</v>
+        <v>-16323.204690696239</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>18497.758241000349</v>
+        <v>7820.7953093037613</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -4705,27 +4717,27 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-3721.9525237344997</v>
+        <v>-10351.506473537098</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-3058.808550707322</v>
+        <v>-9688.3625005099202</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>13601.752389615924</v>
+        <v>6972.1984398133245</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-4094.5053175699923</v>
+        <v>-10724.059267372591</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-3505.8719033099137</v>
+        <v>-10135.425853112512</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>11485.652520630323</v>
+        <v>4856.098570827724</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4785,31 +4797,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-3810.2417589996512</v>
+        <v>-14487.204690696239</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-2010.2417589996512</v>
+        <v>-12687.204690696239</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>51809.758241000352</v>
+        <v>41132.795309303765</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-4662.2417589996512</v>
+        <v>-15339.204690696239</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-3006.2417589996512</v>
+        <v>-13683.204690696239</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>45413.758241000352</v>
+        <v>34736.795309303765</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -4817,27 +4829,27 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-2150.7821401575502</v>
+        <v>-8177.6493672508223</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-1134.7290660607512</v>
+        <v>-7161.5962931540225</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>29245.257849433539</v>
+        <v>23218.39062234027</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-2631.7139285633684</v>
+        <v>-8658.5811556566405</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-1696.9451003943134</v>
+        <v>-7723.8123274875852</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>25634.882592809583</v>
+        <v>19608.01536571631</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -4896,31 +4908,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-834.24175899965121</v>
+        <v>-11511.204690696239</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>2093.7582410003488</v>
+        <v>-8583.2046906962387</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>102617.75824100035</v>
+        <v>91940.795309303765</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-1962.2417589996512</v>
+        <v>-12639.204690696239</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>653.75824100034879</v>
+        <v>-10023.204690696239</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>91145.758241000352</v>
+        <v>80468.795309303765</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -4928,27 +4940,27 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-428.09793119773553</v>
+        <v>-5907.0681376461634</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>1074.4290389817729</v>
+        <v>-4404.5411674666548</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>52659.135716005308</v>
+        <v>47180.165509556886</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-1006.9402885619725</v>
+        <v>-6485.9104950104002</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>335.48134872955569</v>
+        <v>-5143.4888577188722</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>46772.185783662644</v>
+        <v>41293.215577214221</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5007,31 +5019,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>3221.7582410003488</v>
+        <v>-7455.2046906962387</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>7853.7582410003488</v>
+        <v>-2823.2046906962387</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>176309.75824100035</v>
+        <v>165632.79530930376</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>1685.7582410003488</v>
+        <v>-8991.2046906962387</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>5837.7582410003488</v>
+        <v>-4839.2046906962387</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>157457.75824100035</v>
+        <v>146780.79530930376</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -5039,27 +5051,27 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>1502.9739966781908</v>
+        <v>-3477.908009184016</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>3663.8361818096746</v>
+        <v>-1317.0458240525322</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>82249.803422420489</v>
+        <v>77268.921416558282</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>786.41866067604064</v>
+        <v>-4194.4633451861664</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>2723.3573033068528</v>
+        <v>-2257.5247025553545</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>73455.206290706599</v>
+        <v>68474.324284844392</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5118,31 +5130,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>8693.7582410003488</v>
+        <v>-1983.2046906962387</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>15821.758241000349</v>
+        <v>5144.7953093037613</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>255053.75824100035</v>
+        <v>244376.79530930376</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>6605.7582410003488</v>
+        <v>-4071.2046906962387</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>13013.758241000349</v>
+        <v>2336.7953093037613</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>228341.75824100035</v>
+        <v>217664.79530930376</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -5150,27 +5162,27 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>3687.0021647144094</v>
+        <v>-841.07238606941496</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>6709.96998847348</v>
+        <v>2181.8954376896559</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>108167.69142695973</v>
+        <v>103639.6168761759</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>2801.4863375526616</v>
+        <v>-1726.5882132311629</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>5519.1038760835436</v>
+        <v>991.02932529971883</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>96839.195844993927</v>
+        <v>92311.121294210097</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5230,31 +5242,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>16037.758241000349</v>
+        <v>5360.7953093037613</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>26657.758241000349</v>
+        <v>15980.795309303761</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>302333.75824100035</v>
+        <v>291656.79530930374</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>13205.758241000349</v>
+        <v>2528.7953093037613</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>22781.758241000349</v>
+        <v>12104.795309303761</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>270893.75824100035</v>
+        <v>260216.79530930376</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -5262,27 +5274,27 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>6183.2500673108507</v>
+        <v>2066.8186575073746</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>10277.719801052475</v>
+        <v>6161.2883912489988</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>116562.75165782799</v>
+        <v>112446.32024802451</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>5091.3914716464178</v>
+        <v>974.96006184294163</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>8783.3540112236115</v>
+        <v>4666.9226014201349</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>104441.27063816352</v>
+        <v>100324.83922836006</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5341,31 +5353,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>25685.758241000349</v>
+        <v>15008.795309303761</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>41249.758241000352</v>
+        <v>30572.795309303761</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>312473.75824100035</v>
+        <v>301796.79530930374</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>21893.758241000349</v>
+        <v>11216.795309303761</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>35897.758241000352</v>
+        <v>25220.795309303761</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>280025.75824100035</v>
+        <v>269348.79530930374</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -5373,27 +5385,27 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>9002.7015670245182</v>
+        <v>5260.4911944759033</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>14457.788618552908</v>
+        <v>10715.578246004292</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>109520.14601149403</v>
+        <v>105777.9356389454</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>7673.6287001910787</v>
+        <v>3931.4183276424642</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>12581.945268528496</v>
+        <v>8839.7348959798801</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>98147.319961121815</v>
+        <v>94405.109588573192</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5452,31 +5464,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>38309.758241000352</v>
+        <v>27632.795309303761</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>60293.758241000352</v>
+        <v>49616.795309303765</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>312929.75824100035</v>
+        <v>302252.79530930374</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>33269.758241000352</v>
+        <v>22592.795309303761</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>53057.758241000352</v>
+        <v>42380.795309303765</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>280409.75824100035</v>
+        <v>269732.79530930374</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -5484,27 +5496,27 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>12206.669594616013</v>
+        <v>8804.6601650263619</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>19211.449491160492</v>
+        <v>15809.440061570842</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>99709.064754234132</v>
+        <v>96307.055324644476</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>10600.770273355816</v>
+        <v>7198.7608437661656</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>16905.836894208351</v>
+        <v>13503.827464618702</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>89347.190562293341</v>
+        <v>85945.181132703685</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5563,31 +5575,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>54389.758241000352</v>
+        <v>43712.795309303765</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>84413.758241000352</v>
+        <v>73736.795309303765</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>313013.75824100035</v>
+        <v>302336.79530930374</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>47753.758241000352</v>
+        <v>37076.795309303765</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>74753.758241000352</v>
+        <v>64076.795309303765</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>280493.75824100035</v>
+        <v>269816.79530930374</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -5595,27 +5607,27 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>15754.775584907771</v>
+        <v>12662.03973982627</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>24451.658922122086</v>
+        <v>21358.923077040585</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>90668.936129928916</v>
+        <v>87576.200284847408</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>13832.56276097511</v>
+        <v>10739.826915893611</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>21653.50101386568</v>
+        <v>18560.765168784183</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>81249.050500891826</v>
+        <v>78156.314655810318</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5674,31 +5686,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>74381.758241000352</v>
+        <v>63704.795309303765</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>113441.75824100035</v>
+        <v>102764.79530930376</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>313049.75824100035</v>
+        <v>302372.79530930374</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>65717.758241000352</v>
+        <v>55040.795309303765</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>100865.75824100035</v>
+        <v>90188.795309303765</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>280517.75824100035</v>
+        <v>269840.79530930374</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -5706,27 +5718,27 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>19587.041695094205</v>
+        <v>16775.463654111027</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>29872.760488289681</v>
+        <v>27061.182447306499</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>82435.785497817647</v>
+        <v>79624.207456834454</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>17305.539707786331</v>
+        <v>14493.96166680315</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>26561.10663413642</v>
+        <v>23749.528593153242</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>73869.093132732261</v>
+        <v>71057.515091749068</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5785,31 +5797,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>98417.758241000352</v>
+        <v>87740.795309303765</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>146465.75824100035</v>
+        <v>135788.79530930376</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>313073.75824100035</v>
+        <v>302396.79530930374</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>87353.758241000352</v>
+        <v>76676.795309303765</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>130625.75824100035</v>
+        <v>119948.79530930376</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>280541.75824100035</v>
+        <v>269864.79530930374</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -5817,27 +5829,27 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>23560.428839631943</v>
+        <v>21004.448802374507</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>35062.738027721505</v>
+        <v>32506.75799046407</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>74947.368589019083</v>
+        <v>72391.388551761629</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>20911.795205411519</v>
+        <v>18355.815168154084</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>31270.76796571396</v>
+        <v>28714.787928456521</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>67159.466438941454</v>
+        <v>64603.486401684015</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5896,31 +5908,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>126065.75824100035</v>
+        <v>115388.79530930376</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>181325.75824100035</v>
+        <v>170648.79530930376</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>313085.75824100035</v>
+        <v>302408.79530930374</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>112241.75824100035</v>
+        <v>101564.79530930376</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>161993.75824100035</v>
+        <v>151316.79530930376</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>280553.75824100035</v>
+        <v>269876.79530930374</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -5928,27 +5940,27 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>27435.582018718702</v>
+        <v>25111.963803030121</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>39461.768062482312</v>
+        <v>37138.149846793727</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>68136.582994192286</v>
+        <v>65812.964778503694</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>24427.07684555569</v>
+        <v>22103.458629867109</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>35254.561609387158</v>
+        <v>32930.943393698581</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>61056.671948667172</v>
+        <v>58733.05373297858</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -5998,31 +6010,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>156149.75824100035</v>
+        <v>145472.79530930376</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>214925.75824100035</v>
+        <v>204248.79530930376</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>313097.75824100035</v>
+        <v>302420.79530930374</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>139337.75824100035</v>
+        <v>128660.79530930376</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>192197.75824100035</v>
+        <v>181520.79530930376</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>280565.75824100035</v>
+        <v>269888.79530930374</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -6030,27 +6042,27 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>30893.397218026847</v>
+        <v>28781.017021946318</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>42521.915477301183</v>
+        <v>40409.535281220655</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>61944.722312565238</v>
+        <v>59832.342116484702</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>27567.232644477775</v>
+        <v>25454.852448397247</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>38025.301842538909</v>
+        <v>35912.921646458388</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>55508.439543906046</v>
+        <v>53396.05934782551</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6100,31 +6112,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>186905.75824100035</v>
+        <v>176228.79530930376</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>244301.75824100035</v>
+        <v>233624.79530930376</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>313097.75824100035</v>
+        <v>302420.79530930374</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>167009.75824100035</v>
+        <v>156332.79530930376</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>218645.75824100035</v>
+        <v>207968.79530930376</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>280565.75824100035</v>
+        <v>269888.79530930374</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -6132,27 +6144,27 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>33616.643504290361</v>
+        <v>31696.297871489882</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>43939.818609919581</v>
+        <v>42019.472977119105</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>56313.383920513843</v>
+        <v>54393.03828771336</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>30038.173020256643</v>
+        <v>28117.827387456164</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>39325.361496008802</v>
+        <v>37405.015863208318</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>50462.217767187307</v>
+        <v>48541.872134386824</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6202,31 +6214,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>216161.75824100035</v>
+        <v>205484.79530930376</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>267557.75824100035</v>
+        <v>256880.79530930376</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>313097.75824100035</v>
+        <v>302420.79530930374</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>193337.75824100035</v>
+        <v>182660.79530930376</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>239609.75824100035</v>
+        <v>228932.79530930376</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>280565.75824100035</v>
+        <v>269888.79530930374</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -6234,27 +6246,27 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>35344.174783522096</v>
+        <v>33598.406026430748</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>43747.83148004386</v>
+        <v>42002.062722952513</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>51193.985382285304</v>
+        <v>49448.216625193956</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>31612.268400896737</v>
+        <v>29866.499643805393</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>39178.110152423222</v>
+        <v>37432.341395331881</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>45874.743424715722</v>
+        <v>44128.974667624374</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6304,31 +6316,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$13</f>
-        <v>11922.241758999651</v>
+        <v>22599.204690696239</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>241949.75824100035</v>
+        <v>231272.79530930376</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>284357.75824100035</v>
+        <v>273680.79530930374</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>313097.75824100035</v>
+        <v>302420.79530930374</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>216557.75824100035</v>
+        <v>205880.79530930376</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>254705.75824100035</v>
+        <v>244028.79530930376</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>280565.75824100035</v>
+        <v>269888.79530930374</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -6336,33 +6348,33 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>35964.289864506703</v>
+        <v>34377.22735806003</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>42267.968841754577</v>
+        <v>40680.906335307896</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>46539.986711168465</v>
+        <v>44952.924204721785</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>32189.93086171765</v>
+        <v>30602.868355270974</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>37860.387983582674</v>
+        <v>36273.325477136001</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>41704.312204287031</v>
+        <v>40117.249697840351</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="AE23" s="14">
         <f>SUM(AE2:AE22)</f>
-        <v>1120282.2452354846</v>
+        <v>1018706.2780512893</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -6636,7 +6648,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -7768,55 +7780,55 @@
       </c>
       <c r="C2">
         <f>CAPEX!$X3</f>
-        <v>103620.76484436693</v>
+        <v>285776.76484436693</v>
       </c>
       <c r="D2">
         <f>CAPEX!$X4</f>
-        <v>166506.82213135384</v>
+        <v>187117.62213135386</v>
       </c>
       <c r="E2">
         <f>CAPEX!$X5</f>
-        <v>95045.865340540491</v>
+        <v>146654.2653405405</v>
       </c>
       <c r="F2">
         <f>CAPEX!$X6</f>
-        <v>281423.53200720716</v>
+        <v>293883.93200720719</v>
       </c>
       <c r="G2">
         <f>CAPEX!$X7</f>
-        <v>228249.55546468718</v>
+        <v>313257.55546468718</v>
       </c>
       <c r="H2">
         <f>CAPEX!$X8</f>
-        <v>113667.3426221447</v>
+        <v>260526.54262214471</v>
       </c>
       <c r="I2">
         <f>CAPEX!$X9</f>
-        <v>221159.25546468716</v>
+        <v>228351.25546468716</v>
       </c>
       <c r="J2">
         <f>CAPEX!$X10</f>
-        <v>103163.03200720715</v>
+        <v>156312.53200720716</v>
       </c>
       <c r="K2">
         <f>CAPEX!$X11</f>
-        <v>193073.95413371181</v>
+        <v>229172.95413371181</v>
       </c>
       <c r="L2">
         <f>CAPEX!$X12</f>
-        <v>138789.18073992687</v>
+        <v>179757.68073992687</v>
       </c>
       <c r="M2">
         <f>CAPEX!$X13</f>
-        <v>238167.30071821815</v>
+        <v>329979.80071821815</v>
       </c>
       <c r="N2">
         <f>CAPEX!$X14</f>
-        <v>218564.95413371181</v>
+        <v>319876.95413371181</v>
       </c>
       <c r="O2">
         <f>CAPEX!$X15</f>
-        <v>146666.48111821816</v>
+        <v>199372.98111821816</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -7831,7 +7843,7 @@
       </c>
       <c r="D3">
         <f>IF(D2-C2&gt;0,D2-C2,0)</f>
-        <v>62886.057286986907</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7841,15 +7853,15 @@
       </c>
       <c r="G3">
         <f>IF(G2-C2&gt;0,G2-C2,0)</f>
-        <v>124628.79062032024</v>
+        <v>27480.790620320244</v>
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>10046.577777777769</v>
+        <v>-25250.222222222219</v>
       </c>
       <c r="I3">
         <f>I2-D2+D3</f>
-        <v>117538.49062032023</v>
+        <v>41233.633333333302</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -7891,14 +7903,14 @@
       </c>
       <c r="G4">
         <f>G2-D2</f>
-        <v>61742.733333333337</v>
+        <v>126139.93333333332</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <f>I2-D2</f>
-        <v>54652.43333333332</v>
+        <v>41233.633333333302</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -7937,7 +7949,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>186377.66666666669</v>
+        <v>147229.66666666669</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -7950,7 +7962,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>8117.166666666657</v>
+        <v>9658.2666666666628</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -8083,14 +8095,14 @@
       </c>
       <c r="G8">
         <f>IF(G2-H2&gt;0,G2-H2,0)</f>
-        <v>114582.21284254247</v>
+        <v>52731.012842542463</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
         <f>IF(I2-H2&gt;0,I2-H2,0)</f>
-        <v>107491.91284254246</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -8132,7 +8144,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>7090.3000000000175</v>
+        <v>84906.300000000017</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8177,7 +8189,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>178260.5</v>
+        <v>137571.40000000002</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -8247,15 +8259,15 @@
       </c>
       <c r="M11">
         <f>M2-K2</f>
-        <v>45093.346584506333</v>
+        <v>100806.84658450633</v>
       </c>
       <c r="N11">
         <f>N2-K2</f>
-        <v>25491</v>
+        <v>90704</v>
       </c>
       <c r="O11">
         <f>O2-L2+L11</f>
-        <v>7877.3003782912856</v>
+        <v>19615.300378291286</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
@@ -8297,14 +8309,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>99378.119978291274</v>
+        <v>150222.11997829127</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>7877.3003782912856</v>
+        <v>19615.300378291286</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
@@ -8393,7 +8405,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>19602.346584506333</v>
+        <v>10102.846584506333</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -8442,7 +8454,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>91500.819599999988</v>
+        <v>130606.81959999999</v>
       </c>
       <c r="N15">
         <v>0</v>
